--- a/input/add.xlsx
+++ b/input/add.xlsx
@@ -268,42 +268,192 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1">
-        <v>1.000012244941E12</v>
+        <v>1.00001266703E12</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>1.000012222116E12</v>
+        <v>1.0000126952E12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>1.000012179373E12</v>
+        <v>1.000012643614E12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>1.000012219611E12</v>
+        <v>1.000012604967E12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1">
-        <v>1.000012176686E12</v>
+        <v>1.000012672799E12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1">
-        <v>1.000012233136E12</v>
+        <v>1.000012623845E12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1">
-        <v>1.000012264383E12</v>
+        <v>1.000012726843E12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1">
-        <v>1.000011608546E12</v>
+        <v>1.00001270676E12</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>1.000012669782E12</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>1.000012586317E12</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>1.000012610296E12</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>1.000012517939E12</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>1.000012605131E12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>1.000012625092E12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>1.000011815821E12</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>1.000011744442E12</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>1.000012638894E12</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>1.000012457112E12</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>1.000012621858E12</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>1.000012668808E12</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>1.00001151847E12</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>1.000012657451E12</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>1.000012557874E12</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>1.000012584269E12</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1">
+        <v>1.000012456221E12</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1">
+        <v>1.000012368517E12</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1">
+        <v>1.000012522933E12</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1">
+        <v>1.00001260354E12</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1">
+        <v>1.000012708696E12</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1">
+        <v>1.000012517441E12</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1">
+        <v>1.000012590987E12</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1">
+        <v>1.000012637323E12</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1">
+        <v>1.000012607562E12</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1">
+        <v>1.000012414245E12</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1">
+        <v>1.000012619046E12</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1">
+        <v>1.000012567552E12</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1">
+        <v>1.000012616809E12</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1">
+        <v>1.000012590383E12</v>
       </c>
     </row>
   </sheetData>
